--- a/biology/Histoire de la zoologie et de la botanique/Claude_Besuchet/Claude_Besuchet.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Claude_Besuchet/Claude_Besuchet.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Claude Besuchet, né le 4 juillet 1930 à Lausanne et mort le 25 juillet 2020, est un entomologiste suisse spécialiste des coléoptères. Il obtient son doctorat en biologie à l'Université de Lausanne en 1956, puis travaille comme conservateur en entomologie au Muséum d'histoire naturelle de Genève à partir de janvier 1958. Il devient conservateur honoraire à sa retraite en juillet 1992, mais publie encore par la suite. Il étudie en particulier les Staphylinidae, et notamment la sous-famille des Pselaphinae, et a décrit plus de 480 taxons[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Claude Besuchet, né le 4 juillet 1930 à Lausanne et mort le 25 juillet 2020, est un entomologiste suisse spécialiste des coléoptères. Il obtient son doctorat en biologie à l'Université de Lausanne en 1956, puis travaille comme conservateur en entomologie au Muséum d'histoire naturelle de Genève à partir de janvier 1958. Il devient conservateur honoraire à sa retraite en juillet 1992, mais publie encore par la suite. Il étudie en particulier les Staphylinidae, et notamment la sous-famille des Pselaphinae, et a décrit plus de 480 taxons.
 </t>
         </is>
       </c>
@@ -511,180 +523,182 @@
           <t>Taxons dédiés</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">De nombreux taxons sont dédiés à Claude Besuchet, dont :
-Abraeomorphus besucheti Mazur, 1977[2]
+Abraeomorphus besucheti Mazur, 1977
 Abromus besucheti Dajoz, 1968
 Acrotocepheus besucheti Mahunka, 1973
-Agathidium besucheti Hlisnikovský, 1972[3]
-Akermania besucheti Argano &amp; Manicastri, 1979[4]
-Alissonotum piceum besucheti Endrödi, 1977[5]
-Ambicocerodes besucheti Leleup, 1981[6]
-Amblyopone besucheti Baroni Urbani, 1978[7]
+Agathidium besucheti Hlisnikovský, 1972
+Akermania besucheti Argano &amp; Manicastri, 1979
+Alissonotum piceum besucheti Endrödi, 1977
+Ambicocerodes besucheti Leleup, 1981
+Amblyopone besucheti Baroni Urbani, 1978
 Ampedus besucheti Schimmel, 1993
 Anommatus besucheti Dajoz, 1973
 Anotylus besucheti Hammond, 1975
-Aphanocephalus besucheti Schawaller, 1989[8]
-Aphthonoides besucheti Döberl, 1991[9]
+Aphanocephalus besucheti Schawaller, 1989
+Aphthonoides besucheti Döberl, 1991
 Argiloborus besucheti Giachino, 2003
-Atheta besucheti Benick, 1983[10]
-Auchenotropis besucheti Leleup, 1983[11]
-Basalys besucheti Huggert, 1982[12]
+Atheta besucheti Benick, 1983
+Auchenotropis besucheti Leleup, 1983
+Basalys besucheti Huggert, 1982
 Bathyscia besucheti Giachino, 1991
-Batriscenellus besucheti Yin, 2017[13]
+Batriscenellus besucheti Yin, 2017
 Notophthiracarus (Besuchetacarus) Mahunka, 1985
 Besucheteidos Comellini, 1985
 Besuchetia Dajoz, 1975
-Besuchetiella Osella, 1974[14]
-Besuchetionella Angelini &amp; Peck, 2000[15]
-Besuchetostes Paulian, 1972[16]
+Besuchetiella Osella, 1974
+Besuchetionella Angelini &amp; Peck, 2000
+Besuchetostes Paulian, 1972
 Bleszynskia besucheti Błeszyński, 1963, désormais Angustalius besucheti (Błeszyński, 1963)
 Bolitobius besucheti Schülke, 1992
-Brignoliella besuchetiana Bourne, 1980[17]
-Burmoniscus besucheti Taiti &amp; Manicastri, 1988[18]
+Brignoliella besuchetiana Bourne, 1980
+Burmoniscus besucheti Taiti &amp; Manicastri, 1988
 Caenoscelis besucheti Johnson &amp; Bowestead, 2003
-Carabidomemnus besucheti Luna de Carvalho, 1977[19]
-Caucasanura besucheti Deharveng, 1989[20]
-Cerapachys besucheti Brown, 1975[21], désormais Ooceraea besucheti (Brown, 1975)
-Ceriochernes besucheti Beier, 1973[22]
-Cissidium besucheti Darby, 2020[23]
-Clambus besucheti Endrödy-Younga, 1974[24]
-Claudivania Huggert, 1982, dédiée à Claude Besuchet et Ivan Löbl[12]
-Clavicornaltica besucheti Scherer, 1974[25]
+Carabidomemnus besucheti Luna de Carvalho, 1977
+Caucasanura besucheti Deharveng, 1989
+Cerapachys besucheti Brown, 1975, désormais Ooceraea besucheti (Brown, 1975)
+Ceriochernes besucheti Beier, 1973
+Cissidium besucheti Darby, 2020
+Clambus besucheti Endrödy-Younga, 1974
+Claudivania Huggert, 1982, dédiée à Claude Besuchet et Ivan Löbl
+Clavicornaltica besucheti Scherer, 1974
 Claviella besucheti Kalík, 1987
 Corticaria besucheti Dajoz, 1970
 Cryptophagus besucheti Otero, 1997
-Cylindroiulus besucheti Strasser, 1975[26]
-Cyoceraphron besucheti Dessart, 1975[27]
+Cylindroiulus besucheti Strasser, 1975
+Cyoceraphron besucheti Dessart, 1975
 Cyphon besucheti Klausnitzer, 1980
-Cyphopisthes besucheti Paulian, 1972[16], désormais Besuchetostes besucheti (Paulian, 1972)
-Dactylochelifer besucheti Mahnert, 1978[28]
+Cyphopisthes besucheti Paulian, 1972, désormais Besuchetostes besucheti (Paulian, 1972)
+Dactylochelifer besucheti Mahnert, 1978
 Derarimus besucheti Uhmann, 1990
 Dienerella besucheti Vincent, 1994
 Diodesma besucheti Dajoz, 1977
 Echinomorphus besucheti Osella, 1977
-Ectoparyphodes besucheti Leleup, 1986[29]
+Ectoparyphodes besucheti Leleup, 1986
 Edaphus besucheti  Comellini, 1977
-Eleodimerodes besucheti Leleup, 1981[6]
-Emmelostiba besucheti Pace, 1982[30], désormais Bellatheta besucheti (Pace, 1982)
-Endomia besucheti Bonadona, 1989[31], désormais Anthelephila besucheti (Bonadona, 1989)
-Epilachna besucheti Canepari, 1986[32]
-Ernobius besucheti Zahradník, 2000[33]
+Eleodimerodes besucheti Leleup, 1981
+Emmelostiba besucheti Pace, 1982, désormais Bellatheta besucheti (Pace, 1982)
+Endomia besucheti Bonadona, 1989, désormais Anthelephila besucheti (Bonadona, 1989)
+Epilachna besucheti Canepari, 1986
+Ernobius besucheti Zahradník, 2000
 Eryssamena besucheti Breuning, 1971, désormais Cristeryssamena besucheti (Breuning, 1971)
-Esarcus besucheti Dajoz, 1964[34]
+Esarcus besucheti Dajoz, 1964
 Eubaeocera besucheti Löbl, 1969, désormais Baeocera besucheti (Löbl, 1969)
 Eustochus besucheti Bakkendorf, 1964
-Faronus besucheti Castellini, 1990[35]
+Faronus besucheti Castellini, 1990
 Geodessus besucheti Brancucci, 1979
-Geostiba besuchetiana Pace, 1983[36]
-Glenea besucheti Breuning, 1974[37], désormais Acronioglenea besucheti (Breuning, 1974)
-Goniacerus besucheti Comellini, 1990[38]
-Goniomellus besucheti Leleup, 1986[29]
+Geostiba besuchetiana Pace, 1983
+Glenea besucheti Breuning, 1974, désormais Acronioglenea besucheti (Breuning, 1974)
+Goniacerus besucheti Comellini, 1990
+Goniomellus besucheti Leleup, 1986
 Gunvorita besucheti Baehr, 1998
 Halictophagus besucheti Luna de Carvalho, 1978
-Haplidia besucheti Baraud, 1988[39]
+Haplidia besucheti Baraud, 1988
 Hesperotyphlus besucheti Coiffait, 1973
-Illerylon besucheti Ślipiński, 1982[40], désormais Pathelus besucheti (Ślipiński, 1982)
-Indjapyx besucheti Pagés, 1984[41]
-Indocader besucheti Péricart, 1983[42]
-Indohya besucheti Beier, 1974[43]
-Inermoparmena besucheti Breuning, 1971[44]
+Illerylon besucheti Ślipiński, 1982, désormais Pathelus besucheti (Ślipiński, 1982)
+Indjapyx besucheti Pagés, 1984
+Indocader besucheti Péricart, 1983
+Indohya besucheti Beier, 1974
+Inermoparmena besucheti Breuning, 1971
 Ischnomera besucheti Švihla, 1993
-Isometrus besucheti Vachon, 1982[45]
-Kodamaius besucheti Badonnel, 1981[46]
-Leiodes besucheti Daffner, 1986[47]
+Isometrus besucheti Vachon, 1982
+Kodamaius besucheti Badonnel, 1981
+Leiodes besucheti Daffner, 1986
 Leptanilla besucheti Baroni Urbani, 1977
 Leptotyphlopsis besucheti Coiffait, 1969
-Leptozethodes besucheti Coulon, 1983[48]
-Leptusa besucheti Scheerpeltz, 1972[49]
-Leptusa besuchetiana Scheerpeltz, 1972[49]
+Leptozethodes besucheti Coulon, 1983
+Leptusa besucheti Scheerpeltz, 1972
+Leptusa besuchetiana Scheerpeltz, 1972
 Leuctra besucheti Aubert, 1962
 Liocyrtusa besucheti Daffner, 1985
 Lithobius besucheti Matic,1976
 Maladera besucheti Baraud, 1990
 Malthodes besucheti Wittmer, 1970
-Medon besucheti Bordoni, 1980[50], désormais Sunius besucheti (Bordoni, 1980) ou Ochthephilum besucheti (Bordoni, 1980)
-Melanotus besucheti Platia &amp; Schimmel, 2001[51]
+Medon besucheti Bordoni, 1980, désormais Sunius besucheti (Bordoni, 1980) ou Ochthephilum besucheti (Bordoni, 1980)
+Melanotus besucheti Platia &amp; Schimmel, 2001
 Metadromius besucheti Mateu, 1986
 Metajapyx besucheti Pagés, 1978
-Metopioxys besucheti Comellini, 1983[52]
+Metopioxys besucheti Comellini, 1983
 Metrotyphlus serianensis besucheti Pace, 1976
 Mimeryssamena besucheti Breuning, 1972
-Minocellina besucheti Papp, 1981[53], désormais Aptilotus besucheti (Papp, 1981)
+Minocellina besucheti Papp, 1981, désormais Aptilotus besucheti (Papp, 1981)
 Monotarsobius besucheti Matic, 1976
-Nargus besucheti Perreau, 1988[54]
-Nemadus besucheti Perreau, 1991[55]
-Nepalicrepis besucheti Scherer, 1989[56]
-Nephus besucheti Fuersch, 1977[57]
+Nargus besucheti Perreau, 1988
+Nemadus besucheti Perreau, 1991
+Nepalicrepis besucheti Scherer, 1989
+Nephus besucheti Fuersch, 1977
 Niphadobata besucheti Bourne, 1979, désormais Chionea besucheti (Bourne, 1979)
 Nipponobythus besucheti Löbl, 1965
-Ochicanthon besucheti Cuccodoro, 2011[58]
+Ochicanthon besucheti Cuccodoro, 2011
 Octodrilus besucheti Zicsi, 1979, désormais Octodriloides besucheti (Zicsi, 1979)
-Oligota besucheti Williams, 1977[59]
-Oncosomechusa besucheti Pace, 1982[30], désormais Masuria besucheti (Pace, 1982)
-Oppiella besucheti Mahunka &amp; Mahunka-Papp, 2000[60]
-Oxypoda besucheti Focarile, 1982[61], désormaisTectusa besucheti (Focarile, 1982)
-Pachistaegus besucheti De Lisle, 1967[62], désormais Gnaphaloryx besucheti (De Lisle, 1967)
-Pachytrabisus besucheti Leleup, 1981[6]
-Paederus besucheti Biswas &amp; Sen Gupta, 1982[63]
-Panelus besucheti Paulian, 1980[64]
-Paraclodia besucheti Breuning, 1974[65]
+Oligota besucheti Williams, 1977
+Oncosomechusa besucheti Pace, 1982, désormais Masuria besucheti (Pace, 1982)
+Oppiella besucheti Mahunka &amp; Mahunka-Papp, 2000
+Oxypoda besucheti Focarile, 1982, désormaisTectusa besucheti (Focarile, 1982)
+Pachistaegus besucheti De Lisle, 1967, désormais Gnaphaloryx besucheti (De Lisle, 1967)
+Pachytrabisus besucheti Leleup, 1981
+Paederus besucheti Biswas &amp; Sen Gupta, 1982
+Panelus besucheti Paulian, 1980
+Paraclodia besucheti Breuning, 1974
 Paragoniastes besucheti Comellini, 1979
-Paraleleupidia besucheti Mateu, 1981[66]
-Paratyphlus besucheti Coiffait, 1970[67]
-Phaedon besucheti Daccordi, 1984[68]
-Phalantias besucheti Bonadona, 1982[69]
-Philonthus besucheti Smetana, 1977[70]
-Platydema besucheti Ardoin, 1980[71]
-Pleurophorus besucheti Pittino &amp; Mariani, 1986[72]
-Potosia besucheti Alexis &amp; Delpont, 1996[73], désormais Protaetia besucheti (Alexis &amp; Delpont, 1996)
-Protonemura besucheti Zwick, 1971[74]
-Psammodius besucheti Petrovitz, 1975, sous la cacographie Psammobius[75]
-Pseudcolenis besucheti Daffner, 1988[76]
+Paraleleupidia besucheti Mateu, 1981
+Paratyphlus besucheti Coiffait, 1970
+Phaedon besucheti Daccordi, 1984
+Phalantias besucheti Bonadona, 1982
+Philonthus besucheti Smetana, 1977
+Platydema besucheti Ardoin, 1980
+Pleurophorus besucheti Pittino &amp; Mariani, 1986
+Potosia besucheti Alexis &amp; Delpont, 1996, désormais Protaetia besucheti (Alexis &amp; Delpont, 1996)
+Protonemura besucheti Zwick, 1971
+Psammodius besucheti Petrovitz, 1975, sous la cacographie Psammobius
+Pseudcolenis besucheti Daffner, 1988
 Pterogenius besucheti Lawrence, 1977
 Ptiliolum besucheti Israelson, 1976
-Ptilomymar besucheti Viggiani, 1974[77]
-Pygopleurus besucheti Baraud, 1989[78]
-Quasimus besucheti Dolin, 2001[79]
+Ptilomymar besucheti Viggiani, 1974
+Pygopleurus besucheti Baraud, 1989
+Quasimus besucheti Dolin, 2001
 Quasipirhidius besucheti Zaragoza-Caballero, 1992
-Reticulopsocus besucheti Lienhard, 2005[80]
-Rhyparus besucheti Paulian, 1983[81], désormais Termitodiellus besucheti (Paulian, 1983)
-Rimaderus besucheti Bonadona, 1978[82]
+Reticulopsocus besucheti Lienhard, 2005
+Rhyparus besucheti Paulian, 1983, désormais Termitodiellus besucheti (Paulian, 1983)
+Rimaderus besucheti Bonadona, 1978
 Rogeria besucheti Kugler, 1994
 Sastroides besucheti Medvedev, 2000
-Scaphisoma besucheti Löbl, 1971[83]
-Scelolanka besucheti Medvedev, 1974[84]
-Scymnus besucheti Canepari, 1986[32]
+Scaphisoma besucheti Löbl, 1971
+Scelolanka besucheti Medvedev, 1974
+Scymnus besucheti Canepari, 1986
 Sericania besucheti Ahrens, 2004
-Silesis besucheti Platia &amp; Schimmel, 1993[85]
+Silesis besucheti Platia &amp; Schimmel, 1993
 Sinodrepanus besucheti Simonis, 1985
 Sinometa besucheti Wittmer, 1969
 Sipalia besucheti Fagel, 1961, désormais Geostiba besucheti (Fagel, 1961)
-Sivacrypticus besucheti Kaszab, 1979[86]
+Sivacrypticus besucheti Kaszab, 1979
 Sphallestasis besucheti Gozmány, 1976, désormais Edosa besucheti (Gozmány, 1976) ou Neoepiscardia besucheti (Gozmány, 1976)
 Stenichnus besucheti Franz, 1960
-Sticholotis besucheti Canepari, 1986[32]
-Stictomela besucheti Strohecker, 1975[87]
+Sticholotis besucheti Canepari, 1986
+Stictomela besucheti Strohecker, 1975
 Stigmatomma besucheti Baroni Urbani, 1978
-Suctobelbella besucheti Mahunka &amp; Mahunka-Papp, 2001[88]
+Suctobelbella besucheti Mahunka &amp; Mahunka-Papp, 2001
 Tapinopterus placidus besucheti Bucciarelli, 1958, désormais Pterostichus besucheti (Bucciarelli, 1958)
 Tarphius besucheti Español, 1961
-Tomoderus besucheti Bonadona, 1989[31]
-Torneuma besucheti Osella, 1986[89]
-Trabisostenus besucheti Leleup, 1981[6]
-Trechus besucheti Pawłowski, 1977[90]
-Trechus besuchetianus Deuve, 1987[91]
-Trilacuna besucheti Grismado &amp; Piacentini, 2014[92]
-Trimium besucheti Sabella, 1989[93]
+Tomoderus besucheti Bonadona, 1989
+Torneuma besucheti Osella, 1986
+Trabisostenus besucheti Leleup, 1981
+Trechus besucheti Pawłowski, 1977
+Trechus besuchetianus Deuve, 1987
+Trilacuna besucheti Grismado &amp; Piacentini, 2014
+Trimium besucheti Sabella, 1989
 Trogaster besucheti Orousset, 1999
-Tychobythinus besucheti Sabella, 2013[94]
-Typhlocharis besucheti Vigna Taglianti, 1972[95]
-Typhlocyptus besucheti Pace, 1985[96]
-Xenomussardia besucheti Célis, 1975[97]
-Yetialtica besucheti Döberl, 1991[9]
-Zeadolopus besucheti Daffner, 1983[98]
-Zethopsiola besucheti Coulon, 1983[48]
+Tychobythinus besucheti Sabella, 2013
+Typhlocharis besucheti Vigna Taglianti, 1972
+Typhlocyptus besucheti Pace, 1985
+Xenomussardia besucheti Célis, 1975
+Yetialtica besucheti Döberl, 1991
+Zeadolopus besucheti Daffner, 1983
+Zethopsiola besucheti Coulon, 1983
 </t>
         </is>
       </c>
@@ -713,7 +727,9 @@
           <t>Taxons décrits</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Claude Besuchet est l'auteur de deux tribus de Pselaphinae :
 Colilodionini Besuchet, 1991
